--- a/sweater/docs_templates/data_template.xlsx
+++ b/sweater/docs_templates/data_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scham\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scham\OneDrive\Рабочий стол\DocResearcher\sweater\docs_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6732B-48B8-4FDC-A57B-D278313E9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE91C66-BB38-4FF3-ABA4-C84E1B40B3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32655" yWindow="3870" windowWidth="24465" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Группа</t>
   </si>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>Телефон</t>
+  </si>
+  <si>
+    <t>Королева Арина Данииловна</t>
+  </si>
+  <si>
+    <t>02.04.2005 г.</t>
+  </si>
+  <si>
+    <t>09.02.07 Информационные системы и программирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кизилова Е.А </t>
+  </si>
+  <si>
+    <t>ПМ.01 Осуществление интеграции программных модулей</t>
+  </si>
+  <si>
+    <t>13.01.2023-26.01.2023</t>
+  </si>
+  <si>
+    <t>ПАО «Сургутнефтегаз»</t>
+  </si>
+  <si>
+    <t>mars exp studio</t>
+  </si>
+  <si>
+    <t>293295, Ленинградская область, город Дмитров, шоссе 1905 года, 62</t>
+  </si>
+  <si>
+    <t>345-5453</t>
+  </si>
+  <si>
+    <t>expstudio@eth.com</t>
+  </si>
+  <si>
+    <t>docresearcher.com</t>
   </si>
 </sst>
 </file>
@@ -430,7 +466,7 @@
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +539,57 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M2" s="1"/>
+      <c r="A2">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>7994544545</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>32423423</v>
+      </c>
+      <c r="P2">
+        <v>534534</v>
+      </c>
+      <c r="Q2">
+        <v>43534534</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M3" s="1"/>
